--- a/Documents/Project_Schedule.xlsx
+++ b/Documents/Project_Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\C#\MailCrafter-Personal\MailCrafter.MVC\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A54BA92-970A-4300-BB7B-FCB0CBAA5B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515979E4-679C-47D3-9C55-E8CFEDFD4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Schedule'!$C$2:$F$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Schedule'!$C$2:$F$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1"/>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Project deployed to staging/production</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Create SRS</t>
   </si>
 </sst>
 </file>
@@ -234,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]d\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -341,13 +350,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -662,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B2:F54"/>
+  <dimension ref="B2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -709,11 +718,13 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7">
         <v>45671</v>
@@ -724,11 +735,13 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="7">
         <v>45672</v>
@@ -739,7 +752,9 @@
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="2" t="s">
@@ -749,12 +764,14 @@
         <v>45673</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="2" t="s">
@@ -769,59 +786,65 @@
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7">
         <v>45677</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>45684</v>
+        <v>45677</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7">
-        <v>45678</v>
+        <v>45684</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7">
-        <v>45679</v>
+        <v>45678</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -833,13 +856,13 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>45680</v>
+        <v>45679</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>13</v>
@@ -848,10 +871,10 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="7">
-        <v>45681</v>
+        <v>45680</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -863,43 +886,43 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7">
-        <v>45691</v>
+        <v>45681</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7">
-        <v>45685</v>
+        <v>45691</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7">
-        <v>45686</v>
+        <v>45685</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -908,10 +931,10 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7">
-        <v>45687</v>
+        <v>45686</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -923,13 +946,13 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>45688</v>
+        <v>45687</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>13</v>
@@ -938,10 +961,10 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7">
-        <v>45691</v>
+        <v>45688</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>7</v>
@@ -953,40 +976,40 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7">
-        <v>45698</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>6</v>
+        <v>45691</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
-        <v>45692</v>
+        <v>45698</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>6</v>
@@ -998,13 +1021,13 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
@@ -1013,10 +1036,10 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>7</v>
@@ -1028,40 +1051,40 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7">
-        <v>45705</v>
+        <v>45695</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>45699</v>
+        <v>45705</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>7</v>
@@ -1073,13 +1096,13 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
@@ -1088,10 +1111,10 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>3</v>
@@ -1103,10 +1126,10 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="7">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>3</v>
@@ -1118,43 +1141,43 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="7">
-        <v>45712</v>
+        <v>45705</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="8">
-        <v>45706</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45712</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="8">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>13</v>
@@ -1163,10 +1186,10 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="8">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>4</v>
@@ -1178,13 +1201,13 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="8">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -1193,10 +1216,10 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="7">
-        <v>45712</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="8">
+        <v>45709</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>5</v>
@@ -1208,40 +1231,40 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="7">
-        <v>45719</v>
+        <v>45712</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
-        <v>45713</v>
+        <v>45719</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="7">
-        <v>45714</v>
+        <v>45713</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>4</v>
@@ -1253,13 +1276,13 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" s="7">
-        <v>45715</v>
+        <v>45714</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
@@ -1268,10 +1291,10 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="7">
-        <v>45716</v>
+        <v>45715</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>5</v>
@@ -1283,10 +1306,10 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="7">
-        <v>45719</v>
+        <v>45716</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>5</v>
@@ -1298,40 +1321,40 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="7">
-        <v>45726</v>
+        <v>45719</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44" s="7">
-        <v>45720</v>
+        <v>45726</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C45" s="7">
-        <v>45721</v>
+        <v>45720</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>6</v>
@@ -1343,13 +1366,13 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C46" s="7">
-        <v>45722</v>
+        <v>45721</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>13</v>
@@ -1358,10 +1381,10 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="7">
-        <v>45723</v>
+        <v>45722</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>7</v>
@@ -1373,10 +1396,10 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="7">
-        <v>45726</v>
+        <v>45723</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>7</v>
@@ -1388,40 +1411,40 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" s="7">
-        <v>45733</v>
+        <v>45726</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7">
-        <v>45727</v>
+        <v>45733</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
-        <v>45728</v>
+        <v>45727</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>6</v>
@@ -1433,13 +1456,13 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C52" s="7">
-        <v>45729</v>
+        <v>45728</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>13</v>
@@ -1448,10 +1471,10 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="7">
-        <v>45730</v>
+        <v>45729</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>7</v>
@@ -1463,10 +1486,10 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C54" s="7">
-        <v>45733</v>
+        <v>45730</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>7</v>
@@ -1476,11 +1499,26 @@
       </c>
       <c r="F54" s="2"/>
     </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="7">
+        <v>45733</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:F23" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="C2:F24" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F26 F4:F7" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F27" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>"Started, Pending, Done, Cancel"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/Project_Schedule.xlsx
+++ b/Documents/Project_Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding\C#\MailCrafter-Personal\MailCrafter.MVC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\C#\MailCrafter-Personal\JustDocument\MailCrafter.PRN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515979E4-679C-47D3-9C55-E8CFEDFD4D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE306B1D-B4EF-428C-889E-27283C97336D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Topic</t>
     <phoneticPr fontId="1"/>
@@ -100,12 +100,6 @@
     <t>Create APIs for email accounts</t>
   </si>
   <si>
-    <t>Build UI for email accounts</t>
-  </si>
-  <si>
-    <t>Functional email integration</t>
-  </si>
-  <si>
     <t>Milestone 1: Multi-Email Integration and Initial Template System</t>
   </si>
   <si>
@@ -229,13 +223,16 @@
     <t>Project deployed to staging/production</t>
   </si>
   <si>
-    <t>Started</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Create SRS</t>
+    <t>Init SRS</t>
+  </si>
+  <si>
+    <t>Usecase, Class Diagram</t>
+  </si>
+  <si>
+    <t>Build UI for Login</t>
   </si>
 </sst>
 </file>
@@ -674,7 +671,7 @@
   <dimension ref="B2:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -719,7 +716,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:6">
@@ -736,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -753,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -770,7 +767,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -781,18 +778,18 @@
         <v>45674</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7">
         <v>45677</v>
@@ -804,7 +801,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -821,7 +818,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -871,13 +868,13 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C13" s="7">
         <v>45680</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>13</v>
@@ -886,7 +883,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C14" s="7">
         <v>45681</v>
@@ -901,7 +898,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>45691</v>
@@ -916,13 +913,13 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="7">
         <v>45685</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>13</v>
@@ -931,7 +928,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="7">
         <v>45686</v>
@@ -946,7 +943,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>45687</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" s="7">
         <v>45688</v>
@@ -976,7 +973,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7">
         <v>45691</v>
@@ -991,7 +988,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="7">
         <v>45698</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="7">
         <v>45692</v>
@@ -1021,7 +1018,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7">
         <v>45693</v>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>45694</v>
@@ -1051,7 +1048,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C25" s="7">
         <v>45695</v>
@@ -1066,7 +1063,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="7">
         <v>45705</v>
@@ -1081,7 +1078,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7">
         <v>45699</v>
@@ -1096,7 +1093,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="7">
         <v>45700</v>
@@ -1111,7 +1108,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="7">
         <v>45701</v>
@@ -1126,7 +1123,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="7">
         <v>45702</v>
@@ -1141,7 +1138,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="7">
         <v>45705</v>
@@ -1156,7 +1153,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
         <v>45712</v>
@@ -1171,7 +1168,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="8">
         <v>45706</v>
@@ -1186,7 +1183,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C34" s="8">
         <v>45707</v>
@@ -1201,7 +1198,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="8">
         <v>45708</v>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="8">
         <v>45709</v>
@@ -1231,7 +1228,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C37" s="7">
         <v>45712</v>
@@ -1246,7 +1243,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="7">
         <v>45719</v>
@@ -1261,7 +1258,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="7">
         <v>45713</v>
@@ -1276,7 +1273,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="7">
         <v>45714</v>
@@ -1291,7 +1288,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="7">
         <v>45715</v>
@@ -1306,7 +1303,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="7">
         <v>45716</v>
@@ -1321,7 +1318,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="7">
         <v>45719</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>45726</v>
@@ -1351,7 +1348,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C45" s="7">
         <v>45720</v>
@@ -1366,7 +1363,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="7">
         <v>45721</v>
@@ -1381,7 +1378,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7">
         <v>45722</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="7">
         <v>45723</v>
@@ -1411,7 +1408,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C49" s="7">
         <v>45726</v>
@@ -1426,7 +1423,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="7">
         <v>45733</v>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="7">
         <v>45727</v>
@@ -1456,7 +1453,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="7">
         <v>45728</v>
@@ -1471,7 +1468,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7">
         <v>45729</v>
@@ -1486,7 +1483,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="7">
         <v>45730</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="7">
         <v>45733</v>
